--- a/biology/Botanique/Oncidium_sphacelatum/Oncidium_sphacelatum.xlsx
+++ b/biology/Botanique/Oncidium_sphacelatum/Oncidium_sphacelatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oncidium sphacelatum est une espèce de grandes orchidées épiphytes ou occasionnellement lithophytes de couleur jaune et violette d'Amérique centrale.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Oncidium massangei C. Morr. 1977;
 Oncidium stenostalix Rchb.f ex Kraenzel. 1922</t>
@@ -542,7 +556,9 @@
           <t>Sous espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Oncidium sphacelatum var. majus Lindl 1841;
 Oncidium sphacelatum var. minus Lindl 1841;</t>
@@ -573,9 +589,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la retrouve au Mexique, jusqu'au Venezuela[1]. Elle est présente dans toute l'Amérique centrale exceptée au Panama. On la retrouve à des altitudes inférieures à 100 mètres. On peut la retrouver en dehors de son aire de répartition naturelle, mais il s'agit là d'introduction.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la retrouve au Mexique, jusqu'au Venezuela. Elle est présente dans toute l'Amérique centrale exceptée au Panama. On la retrouve à des altitudes inférieures à 100 mètres. On peut la retrouver en dehors de son aire de répartition naturelle, mais il s'agit là d'introduction.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Importée aux Antilles au XIXe siècle elle y prospère dans les jardins  (confondue parfois avec Oncidium altissimum indigène[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Importée aux Antilles au XIXe siècle elle y prospère dans les jardins  (confondue parfois avec Oncidium altissimum indigène.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Panicules latéraux ou tombants, jusqu'à 180 cm de long.
 Fleurs jaunes tachées de violet.
